--- a/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
@@ -522,31 +522,31 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F2" t="n">
         <v>30</v>
       </c>
       <c r="G2" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H2" t="n">
-        <v>102</v>
+        <v>43</v>
       </c>
       <c r="I2" t="n">
-        <v>102.62</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="J2" t="n">
-        <v>90.21000000000001</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="K2" t="n">
-        <v>42.11</v>
+        <v>12.88</v>
       </c>
       <c r="L2" t="n">
-        <v>184.2</v>
+        <v>26.48</v>
       </c>
       <c r="M2" t="n">
-        <v>11440.56</v>
+        <v>1371.13</v>
       </c>
     </row>
     <row r="3">
@@ -571,31 +571,31 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="G3" t="n">
-        <v>19</v>
+        <v>30</v>
       </c>
       <c r="H3" t="n">
-        <v>109</v>
+        <v>46.5</v>
       </c>
       <c r="I3" t="n">
-        <v>109.49</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="J3" t="n">
-        <v>94.40000000000001</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="K3" t="n">
-        <v>43.465</v>
+        <v>15.655</v>
       </c>
       <c r="L3" t="n">
-        <v>189.6</v>
+        <v>25.325</v>
       </c>
       <c r="M3" t="n">
-        <v>11780.58</v>
+        <v>1905.95</v>
       </c>
     </row>
     <row r="4">
@@ -620,31 +620,31 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F4" t="n">
-        <v>54</v>
+        <v>18</v>
       </c>
       <c r="G4" t="n">
-        <v>44</v>
+        <v>16</v>
       </c>
       <c r="H4" t="n">
-        <v>135</v>
+        <v>72</v>
       </c>
       <c r="I4" t="n">
-        <v>118.38</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="J4" t="n">
-        <v>121.4</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="K4" t="n">
-        <v>56.37</v>
+        <v>22.96</v>
       </c>
       <c r="L4" t="n">
-        <v>107.65</v>
+        <v>63.76</v>
       </c>
       <c r="M4" t="n">
-        <v>12034.39</v>
+        <v>3612.15</v>
       </c>
     </row>
     <row r="5">
@@ -669,31 +669,31 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F5" t="n">
         <v>30</v>
       </c>
       <c r="G5" t="n">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="H5" t="n">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="I5" t="n">
-        <v>144.2</v>
+        <v>55.74692233591907</v>
       </c>
       <c r="J5" t="n">
-        <v>142.86</v>
+        <v>53.29054195631661</v>
       </c>
       <c r="K5" t="n">
-        <v>59.11</v>
+        <v>18.34</v>
       </c>
       <c r="L5" t="n">
-        <v>148.92</v>
+        <v>29.98</v>
       </c>
       <c r="M5" t="n">
-        <v>17044.38</v>
+        <v>2135.85</v>
       </c>
     </row>
     <row r="6">
@@ -718,31 +718,31 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F6" t="n">
         <v>32</v>
       </c>
       <c r="G6" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="H6" t="n">
-        <v>88</v>
+        <v>39</v>
       </c>
       <c r="I6" t="n">
-        <v>88.53</v>
+        <v>34.1088841392428</v>
       </c>
       <c r="J6" t="n">
-        <v>85.51000000000001</v>
+        <v>33.51536857132167</v>
       </c>
       <c r="K6" t="n">
-        <v>35.89</v>
+        <v>13.43</v>
       </c>
       <c r="L6" t="n">
-        <v>229.11</v>
+        <v>33.78</v>
       </c>
       <c r="M6" t="n">
-        <v>11131.48</v>
+        <v>1437.7</v>
       </c>
     </row>
     <row r="7">
@@ -767,31 +767,31 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="G7" t="n">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="H7" t="n">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="I7" t="n">
-        <v>144.54</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="J7" t="n">
-        <v>135.82</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="K7" t="n">
-        <v>42.67</v>
+        <v>28.95</v>
       </c>
       <c r="L7" t="n">
-        <v>50.41</v>
+        <v>47.05</v>
       </c>
       <c r="M7" t="n">
-        <v>9416.059999999999</v>
+        <v>3975.87</v>
       </c>
     </row>
     <row r="8">
@@ -816,31 +816,31 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F8" t="n">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="G8" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H8" t="n">
-        <v>75</v>
+        <v>33</v>
       </c>
       <c r="I8" t="n">
-        <v>75.45999999999999</v>
+        <v>33.01268612137392</v>
       </c>
       <c r="J8" t="n">
-        <v>61.36999999999999</v>
+        <v>26.99326575465804</v>
       </c>
       <c r="K8" t="n">
-        <v>29.76</v>
+        <v>11.31</v>
       </c>
       <c r="L8" t="n">
-        <v>130.01</v>
+        <v>31.53</v>
       </c>
       <c r="M8" t="n">
-        <v>8824.85</v>
+        <v>1529.84</v>
       </c>
     </row>
   </sheetData>

--- a/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M8"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -461,40 +461,30 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>peakTime</t>
+          <t>peakValue</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>difference</t>
+          <t>PTPA</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
         <is>
-          <t>peakValue</t>
+          <t>PTTA</t>
         </is>
       </c>
       <c r="I1" s="1" t="inlineStr">
         <is>
-          <t>PTPA</t>
+          <t>RMS</t>
         </is>
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>PTTA</t>
+          <t>tau</t>
         </is>
       </c>
       <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>RMS</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>AUC</t>
         </is>
@@ -522,30 +512,24 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F2" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="G2" t="n">
-        <v>28</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="H2" t="n">
-        <v>43</v>
+        <v>41.12019646503102</v>
       </c>
       <c r="I2" t="n">
-        <v>41.12019646503102</v>
+        <v>12.88</v>
       </c>
       <c r="J2" t="n">
-        <v>41.12019646503102</v>
+        <v>26.48</v>
       </c>
       <c r="K2" t="n">
-        <v>12.88</v>
-      </c>
-      <c r="L2" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="M2" t="n">
         <v>1371.13</v>
       </c>
     </row>
@@ -571,30 +555,24 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F3" t="n">
-        <v>32</v>
+        <v>46.5</v>
       </c>
       <c r="G3" t="n">
-        <v>30</v>
+        <v>46.28653425546297</v>
       </c>
       <c r="H3" t="n">
-        <v>46.5</v>
+        <v>43.73998364553493</v>
       </c>
       <c r="I3" t="n">
-        <v>46.28653425546297</v>
+        <v>15.655</v>
       </c>
       <c r="J3" t="n">
-        <v>43.73998364553493</v>
+        <v>25.325</v>
       </c>
       <c r="K3" t="n">
-        <v>15.655</v>
-      </c>
-      <c r="L3" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="M3" t="n">
         <v>1905.95</v>
       </c>
     </row>
@@ -620,30 +598,24 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>18</v>
+        <v>72</v>
       </c>
       <c r="G4" t="n">
-        <v>16</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="H4" t="n">
-        <v>72</v>
+        <v>66.08783773399121</v>
       </c>
       <c r="I4" t="n">
-        <v>66.08783773399121</v>
+        <v>22.96</v>
       </c>
       <c r="J4" t="n">
-        <v>66.08783773399121</v>
+        <v>63.76</v>
       </c>
       <c r="K4" t="n">
-        <v>22.96</v>
-      </c>
-      <c r="L4" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="M4" t="n">
         <v>3612.15</v>
       </c>
     </row>
@@ -669,30 +641,24 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="F5" t="n">
-        <v>30</v>
+        <v>56</v>
       </c>
       <c r="G5" t="n">
-        <v>28</v>
+        <v>55.74692233591907</v>
       </c>
       <c r="H5" t="n">
-        <v>56</v>
+        <v>53.29054195631661</v>
       </c>
       <c r="I5" t="n">
-        <v>55.74692233591907</v>
+        <v>18.34</v>
       </c>
       <c r="J5" t="n">
-        <v>53.29054195631661</v>
+        <v>29.98</v>
       </c>
       <c r="K5" t="n">
-        <v>18.34</v>
-      </c>
-      <c r="L5" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="M5" t="n">
         <v>2135.85</v>
       </c>
     </row>
@@ -718,30 +684,24 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>32</v>
       </c>
       <c r="F6" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="G6" t="n">
-        <v>30</v>
+        <v>34.1088841392428</v>
       </c>
       <c r="H6" t="n">
-        <v>39</v>
+        <v>33.51536857132167</v>
       </c>
       <c r="I6" t="n">
-        <v>34.1088841392428</v>
+        <v>13.43</v>
       </c>
       <c r="J6" t="n">
-        <v>33.51536857132167</v>
+        <v>33.78</v>
       </c>
       <c r="K6" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="L6" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="M6" t="n">
         <v>1437.7</v>
       </c>
     </row>
@@ -767,30 +727,24 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F7" t="n">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="G7" t="n">
-        <v>16</v>
+        <v>92.76675635975053</v>
       </c>
       <c r="H7" t="n">
-        <v>97</v>
+        <v>84.99343789125676</v>
       </c>
       <c r="I7" t="n">
-        <v>92.76675635975053</v>
+        <v>28.95</v>
       </c>
       <c r="J7" t="n">
-        <v>84.99343789125676</v>
+        <v>47.05</v>
       </c>
       <c r="K7" t="n">
-        <v>28.95</v>
-      </c>
-      <c r="L7" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="M7" t="n">
         <v>3975.87</v>
       </c>
     </row>
@@ -816,30 +770,24 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>2</v>
+        <v>18</v>
       </c>
       <c r="F8" t="n">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="G8" t="n">
-        <v>16</v>
+        <v>33.01268612137392</v>
       </c>
       <c r="H8" t="n">
-        <v>33</v>
+        <v>26.99326575465804</v>
       </c>
       <c r="I8" t="n">
-        <v>33.01268612137392</v>
+        <v>11.31</v>
       </c>
       <c r="J8" t="n">
-        <v>26.99326575465804</v>
+        <v>31.53</v>
       </c>
       <c r="K8" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="L8" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="M8" t="n">
         <v>1529.84</v>
       </c>
     </row>

--- a/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
+++ b/[3] Test Input/RESULTS_TT_MERGED_ASR_control.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K8"/>
+  <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,11 +481,6 @@
       </c>
       <c r="J1" s="1" t="inlineStr">
         <is>
-          <t>tau</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
           <t>AUC</t>
         </is>
       </c>
@@ -527,10 +522,7 @@
         <v>12.88</v>
       </c>
       <c r="J2" t="n">
-        <v>26.48</v>
-      </c>
-      <c r="K2" t="n">
-        <v>1371.13</v>
+        <v>887.21</v>
       </c>
     </row>
     <row r="3">
@@ -570,10 +562,7 @@
         <v>15.655</v>
       </c>
       <c r="J3" t="n">
-        <v>25.325</v>
-      </c>
-      <c r="K3" t="n">
-        <v>1905.95</v>
+        <v>1236.08</v>
       </c>
     </row>
     <row r="4">
@@ -613,10 +602,7 @@
         <v>22.96</v>
       </c>
       <c r="J4" t="n">
-        <v>63.76</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3612.15</v>
+        <v>2325.46</v>
       </c>
     </row>
     <row r="5">
@@ -656,10 +642,7 @@
         <v>18.34</v>
       </c>
       <c r="J5" t="n">
-        <v>29.98</v>
-      </c>
-      <c r="K5" t="n">
-        <v>2135.85</v>
+        <v>1268.2</v>
       </c>
     </row>
     <row r="6">
@@ -699,10 +682,7 @@
         <v>13.43</v>
       </c>
       <c r="J6" t="n">
-        <v>33.78</v>
-      </c>
-      <c r="K6" t="n">
-        <v>1437.7</v>
+        <v>951.23</v>
       </c>
     </row>
     <row r="7">
@@ -742,10 +722,7 @@
         <v>28.95</v>
       </c>
       <c r="J7" t="n">
-        <v>47.05</v>
-      </c>
-      <c r="K7" t="n">
-        <v>3975.87</v>
+        <v>2761.37</v>
       </c>
     </row>
     <row r="8">
@@ -785,10 +762,7 @@
         <v>11.31</v>
       </c>
       <c r="J8" t="n">
-        <v>31.53</v>
-      </c>
-      <c r="K8" t="n">
-        <v>1529.84</v>
+        <v>1046.66</v>
       </c>
     </row>
   </sheetData>
